--- a/msff/xls/ROTI4JIV.xlsx
+++ b/msff/xls/ROTI4JIV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5152F3E-2CEA-442E-8826-4FE16F398AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07A8BDC-B1CE-4785-880A-9C847A4A716B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>topic</t>
   </si>
@@ -55,10 +55,6 @@
     <t>FIX JIV qn</t>
   </si>
   <si>
-    <t>churn,
-accu /5</t>
-  </si>
-  <si>
     <t>SWE4cloud</t>
   </si>
   <si>
@@ -74,9 +70,6 @@
     <t>jxee</t>
   </si>
   <si>
-    <t>thread</t>
-  </si>
-  <si>
     <t>DSnA</t>
   </si>
   <si>
@@ -92,31 +85,12 @@
     <t>MOM</t>
   </si>
   <si>
-    <t>socket #perf</t>
-  </si>
-  <si>
     <t>4[a]</t>
   </si>
   <si>
     <t>py ECT4CIV</t>
   </si>
   <si>
-    <t>%%stand`
-among%% cohort /5</t>
-  </si>
-  <si>
-    <t>regex</t>
-  </si>
-  <si>
-    <t>devops 脏活</t>
-  </si>
-  <si>
-    <t>shScript`脏活</t>
-  </si>
-  <si>
-    <t>coreJ/C++</t>
-  </si>
-  <si>
     <t>J8stream</t>
   </si>
   <si>
@@ -126,81 +100,123 @@
     <t>asyc^block`</t>
   </si>
   <si>
-    <t xml:space="preserve">0[b] </t>
-  </si>
-  <si>
-    <t>sharedMem</t>
-  </si>
-  <si>
-    <t>OOD patt</t>
-  </si>
-  <si>
     <t>上层建筑</t>
   </si>
   <si>
-    <t>dStruct</t>
-  </si>
-  <si>
-    <t>2+</t>
-  </si>
-  <si>
     <t>[b] non-trivial knowhow</t>
   </si>
   <si>
     <t>unix cmd</t>
-  </si>
-  <si>
-    <t>..dStruct</t>
-  </si>
-  <si>
-    <t>1#halo</t>
   </si>
   <si>
     <t>文档处理
 #sh/pl/py</t>
   </si>
   <si>
+    <t>[a] new RnD every decade</t>
+  </si>
+  <si>
+    <t>greedy/DP</t>
+  </si>
+  <si>
+    <t>fin SWE</t>
+  </si>
+  <si>
+    <t>3[a]</t>
+  </si>
+  <si>
+    <t>1[b]</t>
+  </si>
+  <si>
+    <t>smartPtr</t>
+  </si>
+  <si>
+    <t>big4</t>
+  </si>
+  <si>
+    <t>c++DMA #free</t>
+  </si>
+  <si>
+    <t>CIV@math</t>
+  </si>
+  <si>
+    <t>OOD patt#classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c] "SWE applying to my job" like Java SWE or FIX SWE or HFT SWE </t>
+  </si>
+  <si>
     <t>SWE
 该懂  
-/2</t>
-  </si>
-  <si>
-    <t>$$]
+[c] /2</t>
+  </si>
+  <si>
+    <t>socket #tun`[b]</t>
+  </si>
+  <si>
+    <t>sharedMem[b]</t>
+  </si>
+  <si>
+    <t>regex [b]</t>
+  </si>
+  <si>
+    <t>shScript`脏活[b]</t>
+  </si>
+  <si>
+    <t>thread[b]</t>
+  </si>
+  <si>
+    <t>verbose notes</t>
+  </si>
+  <si>
+    <t>never 
+quizzed</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>churn ,accu /5</t>
+  </si>
+  <si>
+    <t>val ]
 WSt 
 JIV /5</t>
   </si>
   <si>
-    <t>py can be an AppDev language (rare) or replacement for perl/sh, but py ECT is visible during CIV</t>
-  </si>
-  <si>
-    <t>[a] new RnD every decade</t>
-  </si>
-  <si>
-    <t>greedy/DP</t>
-  </si>
-  <si>
-    <t>fin SWE</t>
-  </si>
-  <si>
-    <t>3[a]</t>
-  </si>
-  <si>
-    <t>1[b]</t>
-  </si>
-  <si>
-    <t>smartPtr</t>
-  </si>
-  <si>
-    <t>ptr/arr</t>
-  </si>
-  <si>
-    <t>big4</t>
-  </si>
-  <si>
-    <t>c++DMA #free</t>
-  </si>
-  <si>
-    <t>CIV@math</t>
+    <t>..adv dStruct</t>
+  </si>
+  <si>
+    <t>py internal</t>
+  </si>
+  <si>
+    <t>%%stand`
+among%% cohort /5[d]</t>
+  </si>
+  <si>
+    <t>[d] mediocre=2; 3=fair</t>
+  </si>
+  <si>
+    <t>devops
+脏活</t>
+  </si>
+  <si>
+    <t>py can be a PrimaryApp language (rare) or replacement for perl/sh, but py ECT is visible during CIV</t>
+  </si>
+  <si>
+    <t>coreJ/C</t>
+  </si>
+  <si>
+    <t>halo effect</t>
+  </si>
+  <si>
+    <t>ptr #arr</t>
+  </si>
+  <si>
+    <t>dStruct #STL</t>
   </si>
 </sst>
 </file>
@@ -326,9 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -337,14 +350,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,455 +640,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H45"/>
+  <dimension ref="B2:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>43</v>
+      <c r="E2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
-        <v>5</v>
-      </c>
       <c r="E3" s="2">
         <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
-        <v>2</v>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5</v>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="2">
-        <v>2</v>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
-        <v>1</v>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="2">
-        <v>1</v>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E15" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3</v>
+      <c r="G15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>49</v>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E19" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="2">
-        <v>3</v>
+      <c r="G19" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>22</v>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E25" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="2">
-        <v>4</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="2">
         <v>3</v>
@@ -1082,270 +1161,322 @@
       <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="2">
-        <v>3</v>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>22</v>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E27" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="3">
-        <v>5</v>
-      </c>
       <c r="E28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" s="2">
-        <v>3</v>
+      <c r="G28" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="3">
-        <v>5</v>
-      </c>
       <c r="E29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="2">
-        <v>2</v>
+      <c r="G29" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="G30" s="2">
-        <v>2</v>
+      <c r="G30" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="2">
-        <v>3</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>19</v>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
       </c>
-      <c r="G32" s="2">
-        <v>2</v>
+      <c r="G32" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="10">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="3">
-        <v>4</v>
-      </c>
-      <c r="E34" s="2">
-        <v>3</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" s="11">
-        <v>4</v>
-      </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="2" t="s">
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="3">
-        <v>5</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
-      <c r="C36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="3">
-        <v>5</v>
-      </c>
-      <c r="E36" s="2">
-        <v>4</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
-      <c r="C37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="3">
-        <v>4</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="C38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="3">
-        <v>4</v>
-      </c>
-      <c r="E38" s="2">
-        <v>4</v>
-      </c>
-      <c r="F38" s="5">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>45</v>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="G35:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1364,7 +1495,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/msff/xls/ROTI4JIV.xlsx
+++ b/msff/xls/ROTI4JIV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07A8BDC-B1CE-4785-880A-9C847A4A716B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865BFC7E-5D0C-448D-85EA-2C7EDB20EFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>topic</t>
   </si>
@@ -73,9 +73,6 @@
     <t>DSnA</t>
   </si>
   <si>
-    <t>metaProg</t>
-  </si>
-  <si>
     <t>polymorphic</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>py ECT4CIV</t>
-  </si>
-  <si>
-    <t>J8stream</t>
   </si>
   <si>
     <t>GC</t>
@@ -193,13 +187,6 @@
     <t>py internal</t>
   </si>
   <si>
-    <t>%%stand`
-among%% cohort /5[d]</t>
-  </si>
-  <si>
-    <t>[d] mediocre=2; 3=fair</t>
-  </si>
-  <si>
     <t>devops
 脏活</t>
   </si>
@@ -217,6 +204,25 @@
   </si>
   <si>
     <t>dStruct #STL</t>
+  </si>
+  <si>
+    <t>This item is a demo, to be removed.. Not a tech topic</t>
+  </si>
+  <si>
+    <t>metaProgram`</t>
+  </si>
+  <si>
+    <t>J8stream,lambda</t>
+  </si>
+  <si>
+    <t>0[b]</t>
+  </si>
+  <si>
+    <t>%% stand`
+[d] /5</t>
+  </si>
+  <si>
+    <t>[d] mediocre=2; 3=fair. Sample is my age cohort on WSt.</t>
   </si>
 </sst>
 </file>
@@ -350,15 +356,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,46 +649,46 @@
   <dimension ref="B2:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="48.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -702,10 +708,12 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
@@ -715,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -724,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -737,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -746,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -761,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -770,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -781,7 +789,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -816,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -829,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -838,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -851,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -860,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -915,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
@@ -924,10 +932,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -939,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2">
         <v>3</v>
@@ -948,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -961,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
@@ -970,10 +978,10 @@
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -982,22 +990,22 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1009,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
@@ -1018,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1031,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
@@ -1040,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1053,7 +1061,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
@@ -1062,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1075,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2">
         <v>4</v>
@@ -1084,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1097,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
@@ -1106,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1126,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>10</v>
@@ -1141,7 +1149,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -1172,10 +1180,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -1187,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -1262,22 +1270,22 @@
         <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="2">
-        <v>1</v>
+      <c r="F31" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -1286,10 +1294,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -1321,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -1331,7 +1339,7 @@
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -1343,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="10">
         <v>4</v>
@@ -1351,8 +1359,8 @@
       <c r="F35" s="2">
         <v>1</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>55</v>
+      <c r="G35" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="2"/>
@@ -1365,7 +1373,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -1373,7 +1381,7 @@
       <c r="F36" s="2">
         <v>0</v>
       </c>
-      <c r="G36" s="11"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
@@ -1385,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -1393,7 +1401,7 @@
       <c r="F37" s="2">
         <v>0</v>
       </c>
-      <c r="G37" s="11"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="4"/>
       <c r="I37" s="2"/>
     </row>
@@ -1405,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -1413,10 +1421,10 @@
       <c r="F38" s="5">
         <v>1</v>
       </c>
-      <c r="G38" s="11"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -1427,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -1435,7 +1443,7 @@
       <c r="F39" s="5">
         <v>1</v>
       </c>
-      <c r="G39" s="12"/>
+      <c r="G39" s="14"/>
       <c r="H39" s="4"/>
       <c r="I39" s="2"/>
     </row>
@@ -1451,27 +1459,27 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
-        <v>54</v>
+      <c r="B45" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/ROTI4JIV.xlsx
+++ b/msff/xls/ROTI4JIV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865BFC7E-5D0C-448D-85EA-2C7EDB20EFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067EF38F-A8F9-4446-8C78-7761CAF2481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>topic</t>
   </si>
@@ -101,10 +101,6 @@
   </si>
   <si>
     <t>unix cmd</t>
-  </si>
-  <si>
-    <t>文档处理
-#sh/pl/py</t>
   </si>
   <si>
     <t>[a] new RnD every decade</t>
@@ -163,10 +159,6 @@
     <t>verbose notes</t>
   </si>
   <si>
-    <t>never 
-quizzed</t>
-  </si>
-  <si>
     <t>can</t>
   </si>
   <si>
@@ -203,9 +195,6 @@
     <t>ptr #arr</t>
   </si>
   <si>
-    <t>dStruct #STL</t>
-  </si>
-  <si>
     <t>This item is a demo, to be removed.. Not a tech topic</t>
   </si>
   <si>
@@ -223,6 +212,21 @@
   </si>
   <si>
     <t>[d] mediocre=2; 3=fair. Sample is my age cohort on WSt.</t>
+  </si>
+  <si>
+    <t>small feature but visible in CIV</t>
+  </si>
+  <si>
+    <t>dStruct</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>never quizzed</t>
+  </si>
+  <si>
+    <t>reflection</t>
   </si>
 </sst>
 </file>
@@ -646,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I47"/>
+  <dimension ref="B2:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,28 +671,28 @@
   <sheetData>
     <row r="2" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -708,11 +712,11 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -732,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -745,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -754,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -769,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -778,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -809,19 +813,19 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
@@ -831,16 +835,16 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -853,13 +857,13 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -874,232 +878,234 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="10">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10">
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>5</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="3">
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>30</v>
+      <c r="F18" s="2">
+        <v>2</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2">
         <v>2</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -1114,64 +1120,62 @@
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="2">
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2">
-        <v>3</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
@@ -1183,31 +1187,31 @@
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2">
         <v>3</v>
@@ -1223,41 +1227,43 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="3">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>14</v>
@@ -1269,35 +1275,33 @@
       <c r="B31" s="2">
         <v>3</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>18</v>
+      <c r="C31" s="3">
+        <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -1312,179 +1316,205 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
-        <v>4</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
       </c>
       <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="10">
-        <v>4</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H35" s="10"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E37" s="10">
+        <v>4</v>
       </c>
       <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2">
         <v>0</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>5</v>
-      </c>
-      <c r="C38" s="3">
-        <v>4</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
-      <c r="F38" s="5">
-        <v>1</v>
-      </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>26</v>
-      </c>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>23</v>
+      <c r="B43" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>52</v>
+      <c r="B45" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="G37:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/msff/xls/ROTI4JIV.xlsx
+++ b/msff/xls/ROTI4JIV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067EF38F-A8F9-4446-8C78-7761CAF2481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC267DF9-D0FA-4C62-9BD1-779C87DA0C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>topic</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>GC</t>
-  </si>
-  <si>
-    <t>asyc^block`</t>
   </si>
   <si>
     <t>上层建筑</t>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t>reflection</t>
+  </si>
+  <si>
+    <t>lang keywords</t>
   </si>
 </sst>
 </file>
@@ -650,16 +650,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I48"/>
+  <dimension ref="B2:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -671,28 +671,28 @@
   <sheetData>
     <row r="2" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -712,11 +712,11 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -745,11 +745,11 @@
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
-        <v>5</v>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -758,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -769,11 +769,11 @@
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>3</v>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -782,19 +782,17 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -819,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -828,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -838,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -850,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -863,7 +861,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -872,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -882,19 +880,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -943,172 +941,172 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2">
-        <v>3</v>
-      </c>
-      <c r="F17" s="10">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10">
         <v>2</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>31</v>
@@ -1120,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1130,91 +1128,89 @@
         <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="2">
-        <v>4</v>
-      </c>
-      <c r="F27" s="2">
-        <v>2</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2">
         <v>2</v>
@@ -1222,70 +1218,72 @@
       <c r="G28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="C30" s="3">
-        <v>5</v>
+      <c r="C30" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3">
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>14</v>
@@ -1301,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -1319,202 +1317,224 @@
       <c r="B33" s="2">
         <v>3</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>18</v>
+      <c r="C33" s="3">
+        <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>57</v>
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E34" s="2">
-        <v>2</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="B35" s="2">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>4</v>
-      </c>
-      <c r="C36" s="3">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="10">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
       </c>
       <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E38" s="10">
+        <v>4</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="10"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>24</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>50</v>
+      <c r="B46" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="G38:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/msff/xls/ROTI4JIV.xlsx
+++ b/msff/xls/ROTI4JIV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC267DF9-D0FA-4C62-9BD1-779C87DA0C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8968D9-7D09-42EB-8F88-1051CA9C4E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>topic</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>3[a]</t>
-  </si>
-  <si>
-    <t>1[b]</t>
   </si>
   <si>
     <t>smartPtr</t>
@@ -199,9 +196,6 @@
   </si>
   <si>
     <t>J8stream,lambda</t>
-  </si>
-  <si>
-    <t>0[b]</t>
   </si>
   <si>
     <t>%% stand`
@@ -653,7 +647,7 @@
   <dimension ref="B2:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,28 +665,28 @@
   <sheetData>
     <row r="2" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -716,7 +710,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -749,7 +743,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -761,7 +755,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -773,7 +767,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -785,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -817,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -861,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -883,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -947,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2">
         <v>4</v>
@@ -956,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -972,16 +966,16 @@
         <v>20</v>
       </c>
       <c r="E17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -993,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2">
         <v>3</v>
@@ -1002,11 +996,11 @@
         <v>2</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -1017,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
@@ -1026,10 +1020,10 @@
         <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -1041,19 +1035,19 @@
         <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
+      <c r="F20" s="2">
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -1061,22 +1055,22 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -1090,13 +1084,13 @@
         <v>15</v>
       </c>
       <c r="E22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1109,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
@@ -1118,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1131,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2">
         <v>5</v>
@@ -1140,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1153,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2">
         <v>4</v>
@@ -1162,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1175,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2">
         <v>5</v>
@@ -1184,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1219,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -1253,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -1265,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -1348,14 +1342,14 @@
       <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>56</v>
+      <c r="F34" s="2">
+        <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -1367,7 +1361,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
@@ -1399,7 +1393,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -1409,7 +1403,7 @@
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -1430,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="2"/>
@@ -1443,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -1463,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -1474,7 +1468,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="4"/>
       <c r="I40" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -1519,17 +1513,17 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
